--- a/Datasets/Frommann/Data/Frommann_5_B_Bolduan.xlsx
+++ b/Datasets/Frommann/Data/Frommann_5_B_Bolduan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maribo\Desktop\SHK Job\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/81aa60b0b6324d95/Dokumente/GitHub/Akademie_Projekt/Datasets/Frommann/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{8916E206-E3FF-4303-B326-4FAFDE64509C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -274,17 +274,20 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF202124"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF202124"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -355,7 +358,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -630,11 +633,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P265"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="120" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.125" customWidth="1"/>
     <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
@@ -1164,7 +1167,7 @@
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="10.875" style="8"/>
   </cols>
@@ -1183,7 +1186,7 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
